--- a/data/trans_orig/IP3113_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3113_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{056901E2-1F7A-4B0D-B202-2F6F7E4E7DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C4B8C1-3F31-41DC-A31B-5610C5BEE3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDBB0724-7291-47E9-BDEF-F126CF284560}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F84AFFDC-8599-4865-9053-17EF5F65BF58}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="125">
   <si>
     <t>Menores según si colabora o ha colaborado en alguna organización en 2023 (Tasa respuesta: 96,25%)</t>
   </si>
@@ -104,28 +104,28 @@
     <t>88,25%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>88,4%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -140,28 +140,28 @@
     <t>11,75%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -170,37 +170,37 @@
     <t>91,44%</t>
   </si>
   <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>2,76%</t>
@@ -209,43 +209,43 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>10,13%</t>
+    <t>11,83%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -254,34 +254,34 @@
     <t>84,59%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>1,38%</t>
@@ -290,73 +290,79 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>3,6%</t>
+    <t>3,8%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>0,3%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>17,09%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>2,22%</t>
@@ -365,43 +371,43 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>7,17%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -816,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D51239-6BE1-4EB9-BEC4-FFF9C1EECF4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B692D8-E547-4070-A40A-ECE96ED31528}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1237,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>6526</v>
+        <v>6525</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>33</v>
@@ -1288,7 +1294,7 @@
         <v>77</v>
       </c>
       <c r="D11" s="7">
-        <v>55514</v>
+        <v>55513</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>14</v>
@@ -1637,7 +1643,7 @@
         <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,13 +1658,13 @@
         <v>25464</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -1667,13 +1673,13 @@
         <v>17786</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -1682,13 +1688,13 @@
         <v>43250</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,13 +1762,13 @@
         <v>633278</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>839</v>
@@ -1771,13 +1777,13 @@
         <v>572720</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>1681</v>
@@ -1786,13 +1792,13 @@
         <v>1205997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,13 +1813,13 @@
         <v>7508</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -1822,13 +1828,13 @@
         <v>14172</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -1837,13 +1843,13 @@
         <v>21680</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,13 +1864,13 @@
         <v>66640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -1873,13 +1879,13 @@
         <v>51528</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>148</v>
@@ -1888,13 +1894,13 @@
         <v>118169</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,7 +1956,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3113_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3113_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C4B8C1-3F31-41DC-A31B-5610C5BEE3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12DADAF-E5D5-4A63-A4E4-D31DA9BA296E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F84AFFDC-8599-4865-9053-17EF5F65BF58}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{569260F6-174A-4836-AA17-9203754CF8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="125">
-  <si>
-    <t>Menores según si colabora o ha colaborado en alguna organización en 2023 (Tasa respuesta: 96,25%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
+  <si>
+    <t>Menores según si colabora o ha colaborado como voluntario/a en alguna organización en 2023 (Tasa respuesta: 96,25%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,349 +65,334 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>No, nunca ha colaborado</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>No, ya no colabora, pero colaboró</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Sí, colabora</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>No, ya no colabora, pero colaboró</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Sí, colabora</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -822,8 +807,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B692D8-E547-4070-A40A-ECE96ED31528}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AFCDEA-940D-45A1-B168-516B5FD8A616}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -940,66 +925,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="D4" s="7">
+        <v>48219</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>51681</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>99899</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1008,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1023,62 +1012,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5480</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>6664</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>12144</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1087,202 +1078,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D7" s="7">
+        <v>53699</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I7" s="7">
-        <v>1171</v>
+        <v>58345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N7" s="7">
-        <v>1171</v>
+        <v>112043</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>69</v>
+        <v>582</v>
       </c>
       <c r="D8" s="7">
-        <v>48988</v>
+        <v>394210</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>575</v>
       </c>
       <c r="I8" s="7">
-        <v>44337</v>
+        <v>463022</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>129</v>
+        <v>1157</v>
       </c>
       <c r="N8" s="7">
-        <v>93325</v>
+        <v>857232</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>30458</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>6755</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>37213</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>6525</v>
+        <v>25430</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>5817</v>
+        <v>33550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="N10" s="7">
-        <v>12342</v>
+        <v>58980</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1291,204 +1284,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>77</v>
+        <v>622</v>
       </c>
       <c r="D11" s="7">
-        <v>55513</v>
+        <v>450098</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>67</v>
+        <v>627</v>
       </c>
       <c r="I11" s="7">
-        <v>50154</v>
+        <v>503327</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>144</v>
+        <v>1249</v>
       </c>
       <c r="N11" s="7">
-        <v>105667</v>
+        <v>953425</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>575</v>
+        <v>196</v>
       </c>
       <c r="D12" s="7">
-        <v>438371</v>
+        <v>126640</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
-        <v>582</v>
+        <v>198</v>
       </c>
       <c r="I12" s="7">
-        <v>399410</v>
+        <v>154925</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
-        <v>1157</v>
+        <v>394</v>
       </c>
       <c r="N12" s="7">
-        <v>837781</v>
+        <v>281565</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>6395</v>
+        <v>2030</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>12133</v>
+        <v>1165</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>18528</v>
+        <v>3195</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>34651</v>
+        <v>17130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>27926</v>
+        <v>25049</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="N14" s="7">
-        <v>62577</v>
+        <v>42179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,204 +1490,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>627</v>
+        <v>221</v>
       </c>
       <c r="D15" s="7">
-        <v>479418</v>
+        <v>145800</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>622</v>
+        <v>233</v>
       </c>
       <c r="I15" s="7">
-        <v>439468</v>
+        <v>181139</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1249</v>
+        <v>454</v>
       </c>
       <c r="N15" s="7">
-        <v>918886</v>
+        <v>326939</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>198</v>
+        <v>838</v>
       </c>
       <c r="D16" s="7">
-        <v>145918</v>
+        <v>569069</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
-        <v>196</v>
+        <v>842</v>
       </c>
       <c r="I16" s="7">
-        <v>127801</v>
+        <v>669628</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
-        <v>394</v>
+        <v>1680</v>
       </c>
       <c r="N16" s="7">
-        <v>273719</v>
+        <v>1238697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>1113</v>
+        <v>32489</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>2039</v>
+        <v>7919</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>3152</v>
+        <v>40408</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D18" s="7">
-        <v>25464</v>
+        <v>48040</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I18" s="7">
-        <v>17786</v>
+        <v>65264</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="N18" s="7">
-        <v>43250</v>
+        <v>113304</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,267 +1696,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>233</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>172494</v>
+        <v>649597</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>221</v>
+        <v>937</v>
       </c>
       <c r="I19" s="7">
-        <v>147627</v>
+        <v>742811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>454</v>
+        <v>1847</v>
       </c>
       <c r="N19" s="7">
-        <v>320121</v>
+        <v>1392408</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>842</v>
-      </c>
-      <c r="D20" s="7">
-        <v>633278</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="7">
-        <v>839</v>
-      </c>
-      <c r="I20" s="7">
-        <v>572720</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1681</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1205997</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>10</v>
-      </c>
-      <c r="D21" s="7">
-        <v>7508</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="7">
-        <v>9</v>
-      </c>
-      <c r="I21" s="7">
-        <v>14172</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M21" s="7">
-        <v>19</v>
-      </c>
-      <c r="N21" s="7">
-        <v>21680</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>85</v>
-      </c>
-      <c r="D22" s="7">
-        <v>66640</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="7">
-        <v>63</v>
-      </c>
-      <c r="I22" s="7">
-        <v>51528</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="A20" t="s">
         <v>119</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M22" s="7">
-        <v>148</v>
-      </c>
-      <c r="N22" s="7">
-        <v>118169</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>937</v>
-      </c>
-      <c r="D23" s="7">
-        <v>707426</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="7">
-        <v>911</v>
-      </c>
-      <c r="I23" s="7">
-        <v>638420</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1848</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1345846</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>124</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
